--- a/biology/Botanique/Agrostide/Agrostide.xlsx
+++ b/biology/Botanique/Agrostide/Agrostide.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Agrostide est un nom vernaculaire dont la signification est ambiguë. On appelle « agrostide » diverses plantes herbacées de la famille des Poaceae (graminées). Cela représente une centaine d'espèces des régions tempérées et froides. Plusieurs d'entre elles sont cultivées comme plantes fourragères ou ornementales, notamment pour les gazons d'agrément (Agrostide ténue), ou les green de golf (Agrostide stolonifère).
 Le genre des agrostides « véritables » est Agrostis. Néanmoins, par analogie de forme, ainsi qu'en raison du démantèlement du genre Agrostis, les agrostides appartiennent en réalité à plusieurs genres différents.
@@ -513,7 +525,9 @@
           <t>Liste d'espèces appelées « agrostide » en français</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Agrostide des Alpes - Agrostis alpina Scop.
 Agrostide blanche - Agrostis stolonifera L.
